--- a/output_figures_and_tables/Tables.xlsx
+++ b/output_figures_and_tables/Tables.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDDAEC-8A97-4C7B-AEB6-0E005B5DDF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="17" r:id="rId1"/>
@@ -30,12 +30,12 @@
     <sheet name="Table4a" sheetId="15" r:id="rId15"/>
     <sheet name="Table4b" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="553">
   <si>
     <t>Row</t>
   </si>
@@ -875,6 +875,825 @@
   </si>
   <si>
     <t>smooth_R2</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>turquoise</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>ci_1</t>
+  </si>
+  <si>
+    <t>ci_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>OppoDev1a</t>
+  </si>
+  <si>
+    <t>OppoDev1b</t>
+  </si>
+  <si>
+    <t>HueF1b</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>CI_1</t>
+  </si>
+  <si>
+    <t>CI_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Chroma</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>CI_1</t>
+  </si>
+  <si>
+    <t>CI_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>smooth_R2</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>OppoDev</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>CI_1</t>
+  </si>
+  <si>
+    <t>CI_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>smooth_R2</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HueF</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>CI_1</t>
+  </si>
+  <si>
+    <t>CI_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>smooth_R2</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Chroma</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>CI_1</t>
+  </si>
+  <si>
+    <t>CI_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>smooth_R2</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>OppoDev</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>CI_1</t>
+  </si>
+  <si>
+    <t>CI_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>smooth_R2</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HueF</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>CI_1</t>
+  </si>
+  <si>
+    <t>CI_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>smooth_R2</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>dkl</t>
+  </si>
+  <si>
+    <t>Luv</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>cam02</t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>RYGB</t>
+  </si>
+  <si>
+    <t>Mdev</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>ci_1</t>
+  </si>
+  <si>
+    <t>ci_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>dkl</t>
+  </si>
+  <si>
+    <t>Luv</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>cam02</t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>RYGB</t>
+  </si>
+  <si>
+    <t>Mdev</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>ci_1</t>
+  </si>
+  <si>
+    <t>ci_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>dkl</t>
+  </si>
+  <si>
+    <t>Luv</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>cam02</t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>RYGB</t>
+  </si>
+  <si>
+    <t>Mdev</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>dkl</t>
+  </si>
+  <si>
+    <t>Luv</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>cam02</t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>RYGB</t>
+  </si>
+  <si>
+    <t>Mdev</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>dkl</t>
+  </si>
+  <si>
+    <t>Luv</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>cam02</t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>RYGB</t>
+  </si>
+  <si>
+    <t>Mdev</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>dkl</t>
+  </si>
+  <si>
+    <t>Luv</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>cam02</t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>RYGB</t>
+  </si>
+  <si>
+    <t>Mdev</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>turquoise</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>ci_1</t>
+  </si>
+  <si>
+    <t>ci_2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -919,12 +1738,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9836725974303414E-2"/>
+        <fgColor theme="0" tint="-0.049836725974303"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1144,119 +1963,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1593,309 +2414,310 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.578125" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="11.578125" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="3.1015625" customWidth="1"/>
-    <col min="7" max="7" width="14.20703125" customWidth="1"/>
-    <col min="8" max="8" width="12.20703125" customWidth="1"/>
-    <col min="9" max="9" width="15.1015625" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="1" max="1" width="8.60546875" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" customWidth="true"/>
+    <col min="3" max="3" width="11.60546875" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" customWidth="true"/>
+    <col min="6" max="6" width="3.1328125" customWidth="true"/>
+    <col min="7" max="7" width="14.1875" customWidth="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="9" max="9" width="15.1328125" customWidth="true"/>
+    <col min="10" max="10" width="3.9765625" customWidth="true"/>
+    <col min="5" max="5" width="12.60546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="89" t="s">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>9</v>
+        <v>539</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>10</v>
+        <v>540</v>
       </c>
       <c r="D1" s="89" t="s">
-        <v>11</v>
+        <v>541</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>13</v>
+        <v>543</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>14</v>
+        <v>544</v>
       </c>
       <c r="H1" s="89" t="s">
-        <v>15</v>
+        <v>545</v>
       </c>
       <c r="I1" s="89" t="s">
-        <v>16</v>
+        <v>546</v>
       </c>
       <c r="J1" s="89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>531</v>
+      </c>
+      <c r="B2" s="0">
         <v>11.290322580643172</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>2.1120206644003212</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.96012403252309086</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>5.345744372178717</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>6.977000950599356</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>15.603644210686989</v>
       </c>
-      <c r="I2">
-        <v>8.7748333461129475E-6</v>
+      <c r="I2" s="0">
+        <v>8.7748333461129475e-06</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>532</v>
+      </c>
+      <c r="B3" s="0">
         <v>19.032258064518984</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>1.9038635709275025</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>1.7954513706379545</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>9.9966501566323203</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>15.144049933058428</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>22.920466195979539</v>
       </c>
-      <c r="I3">
-        <v>4.611089052038912E-11</v>
+      <c r="I3" s="0">
+        <v>4.611089052038912e-11</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>533</v>
+      </c>
+      <c r="B4" s="0">
         <v>2.4193548387016057</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>1.224107481355502</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.35497614640323111</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>1.9764235375986428</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>30</v>
       </c>
-      <c r="G4">
-        <v>-8.0606154023016963E-2</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="0">
+        <v>-0.080606154023016963</v>
+      </c>
+      <c r="H4" s="0">
         <v>4.9193158314262284</v>
       </c>
-      <c r="I4">
-        <v>5.7364077477402922E-2</v>
+      <c r="I4" s="0">
+        <v>0.057364077477402922</v>
       </c>
       <c r="J4" s="87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+        <v>534</v>
+      </c>
+      <c r="B5" s="0">
         <v>-16.129032258066619</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>2.2565278949805894</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>-1.2837686237131889</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>-7.1477211932296374</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-20.737477024860887</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-11.52058749127235</v>
       </c>
-      <c r="I5">
-        <v>5.9530398629779788E-8</v>
+      <c r="I5" s="0">
+        <v>5.9530398629779788e-08</v>
       </c>
       <c r="J5" s="87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+        <v>535</v>
+      </c>
+      <c r="B6" s="0">
         <v>0.96774193548205201</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>1.5453599441294819</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>0.11247320293663987</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.62622429108397237</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>-2.1883041134848087</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>4.1237879844489127</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>0.53590396738293067</v>
       </c>
       <c r="J6" s="87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+        <v>536</v>
+      </c>
+      <c r="B7" s="0">
         <v>-22.258064516127703</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>2.6113761633529418</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>-1.5308657772297551</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>-8.5234999187359151</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-27.591206127585018</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-16.924922904670389</v>
       </c>
-      <c r="I7">
-        <v>1.6436484144420647E-9</v>
+      <c r="I7" s="0">
+        <v>1.6436484144420647e-09</v>
       </c>
       <c r="J7" s="87" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+        <v>537</v>
+      </c>
+      <c r="B8" s="0">
         <v>12.096774193543789</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>2.5796368998096466</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0.84222891320148574</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>4.6893321282682923</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>30</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>6.8284528058042318</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>17.365095581283345</v>
       </c>
-      <c r="I8">
-        <v>5.5936810484615789E-5</v>
+      <c r="I8" s="0">
+        <v>5.5936810484615789e-05</v>
       </c>
       <c r="J8" s="87" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+        <v>538</v>
+      </c>
+      <c r="B9" s="0">
         <v>6.2903225806448484</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>1.5720636040014457</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>0.71865749201679319</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>4.0013155731319019</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>3.0797403826390393</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>9.5009047786506571</v>
       </c>
-      <c r="I9">
-        <v>3.8046747561276114E-4</v>
+      <c r="I9" s="0">
+        <v>0.00038046747561276114</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -1913,92 +2735,93 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.578125" customWidth="1"/>
-    <col min="4" max="4" width="12.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.1015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.578125" customWidth="1"/>
-    <col min="8" max="8" width="4.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1015625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="13.60546875" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="3.1328125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="13.60546875" customWidth="true"/>
+    <col min="8" max="8" width="4.34375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="15.1328125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="3.9765625" customWidth="true"/>
+    <col min="6" max="6" width="3.1328125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" s="39" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="57" t="s">
-        <v>42</v>
+        <v>439</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>50</v>
+        <v>447</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>51</v>
+        <v>448</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>53</v>
+        <v>450</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>56</v>
+        <v>453</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>0.52482578399063695</v>
-      </c>
-      <c r="C2">
-        <v>0.21452490475743943</v>
-      </c>
-      <c r="D2">
-        <v>0.33926243399668771</v>
+        <v>440</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.52482578399056679</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.21452490475744002</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.33926243399664141</v>
       </c>
       <c r="E2" s="12">
-        <v>2.4464562032275494</v>
+        <v>2.4464562032272159</v>
       </c>
       <c r="F2" s="18">
         <v>51</v>
       </c>
-      <c r="G2">
-        <v>9.4149066871051068E-2</v>
+      <c r="G2" s="0">
+        <v>0.094149066870979736</v>
       </c>
       <c r="H2" s="20">
-        <v>0.95550250111022283</v>
-      </c>
-      <c r="I2">
-        <v>1.7914182353719155E-2</v>
+        <v>0.95550250111015389</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.017914182353733914</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
+        <v>441</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.52482578398872315</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>0.21452490475741029</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.33926243399549666</v>
       </c>
       <c r="E3" s="12">
@@ -2007,30 +2830,30 @@
       <c r="F3" s="18">
         <v>51</v>
       </c>
-      <c r="G3">
-        <v>9.4149066869195774E-2</v>
+      <c r="G3" s="0">
+        <v>0.094149066869195774</v>
       </c>
       <c r="H3" s="20">
         <v>0.95550250110825052</v>
       </c>
-      <c r="I3">
-        <v>1.7914182354099955E-2</v>
+      <c r="I3" s="0">
+        <v>0.017914182354099955</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
+        <v>442</v>
+      </c>
+      <c r="B4" s="0">
         <v>1.2299420934027983</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0.15647784751437066</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1.0900091153374678</v>
       </c>
       <c r="E4" s="12">
@@ -2039,30 +2862,30 @@
       <c r="F4" s="18">
         <v>51</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>0.91579970631899155</v>
       </c>
       <c r="H4" s="20">
         <v>1.544084480486605</v>
       </c>
-      <c r="I4">
-        <v>2.4048505112238818E-10</v>
+      <c r="I4" s="0">
+        <v>2.4048505112238818e-10</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
+        <v>443</v>
+      </c>
+      <c r="B5" s="0">
         <v>0.17199553748009933</v>
       </c>
-      <c r="C5">
-        <v>7.0621137530493219E-2</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="0">
+        <v>0.070621137530493219</v>
+      </c>
+      <c r="D5" s="0">
         <v>0.33773867756264864</v>
       </c>
       <c r="E5" s="12">
@@ -2071,62 +2894,62 @@
       <c r="F5" s="18">
         <v>51</v>
       </c>
-      <c r="G5">
-        <v>3.0217687932638571E-2</v>
+      <c r="G5" s="0">
+        <v>0.030217687932638571</v>
       </c>
       <c r="H5" s="20">
         <v>0.31377338702756008</v>
       </c>
-      <c r="I5">
-        <v>1.8407447663115632E-2</v>
+      <c r="I5" s="0">
+        <v>0.018407447663115632</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>5.2868434021585609</v>
-      </c>
-      <c r="C6">
-        <v>0.5027777574881841</v>
-      </c>
-      <c r="D6">
-        <v>1.4582054540560754</v>
+        <v>444</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5.2868434021585626</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.50277775748818454</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1.4582054540560749</v>
       </c>
       <c r="E6" s="12">
-        <v>10.515269069520857</v>
+        <v>10.515269069520851</v>
       </c>
       <c r="F6" s="18">
         <v>51</v>
       </c>
-      <c r="G6">
-        <v>4.277474936149491</v>
+      <c r="G6" s="0">
+        <v>4.2774749361494919</v>
       </c>
       <c r="H6" s="20">
-        <v>6.2962118681676307</v>
-      </c>
-      <c r="I6">
-        <v>2.2618508969230798E-14</v>
+        <v>6.2962118681676333</v>
+      </c>
+      <c r="I6" s="0">
+        <v>2.2618508969231136e-14</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
+        <v>445</v>
+      </c>
+      <c r="B7" s="0">
         <v>26.091218606799632</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>0.86893093196926052</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>4.1639684894596138</v>
       </c>
       <c r="E7" s="12">
@@ -2135,22 +2958,22 @@
       <c r="F7" s="18">
         <v>51</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>24.34676697025273</v>
       </c>
       <c r="H7" s="20">
         <v>27.835670243346534</v>
       </c>
-      <c r="I7">
-        <v>4.3473826799865823E-34</v>
+      <c r="I7" s="0">
+        <v>4.3473826799865823e-34</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" s="28" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29" t="s">
-        <v>49</v>
+        <v>446</v>
       </c>
       <c r="B8" s="28">
         <v>-0.56936961110846407</v>
@@ -2174,10 +2997,10 @@
         <v>-0.27794844484962372</v>
       </c>
       <c r="I8" s="28">
-        <v>2.6293468505722252E-4</v>
+        <v>0.00026293468505722252</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>62</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2196,139 +3019,145 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.47265625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.1015625" customWidth="1"/>
-    <col min="3" max="3" width="4.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.20703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="45" customWidth="true"/>
+    <col min="2" max="2" width="3.1328125" customWidth="true"/>
+    <col min="3" max="3" width="4.3984375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="1.921875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="2.1875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="3.9765625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" s="30" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="42" t="s">
-        <v>63</v>
+        <v>460</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>71</v>
+        <v>468</v>
       </c>
       <c r="C1" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="0">
         <v>72</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
+      <c r="C2" s="0">
+        <v>57</v>
+      </c>
+      <c r="D2" s="0"/>
+      <c r="E2" s="13">
+        <v>6.5399682217332699e-07</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="0">
         <v>72</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="0">
         <v>57</v>
       </c>
-      <c r="E2" s="13">
-        <v>6.5399682217332699E-7</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
+      <c r="D3" s="0"/>
+      <c r="E3" s="13">
+        <v>6.5399682217332699e-07</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="0">
         <v>72</v>
       </c>
-      <c r="C3">
-        <v>57</v>
-      </c>
-      <c r="E3" s="13">
-        <v>6.5399682217332699E-7</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
+      <c r="C4" s="0">
+        <v>51</v>
+      </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="13">
+        <v>0.00053496420164989152</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="0">
         <v>72</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="0">
         <v>51</v>
       </c>
-      <c r="E4" s="13">
-        <v>5.3496420164989152E-4</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
+      <c r="D5" s="0"/>
+      <c r="E5" s="13">
+        <v>0.00053496420164989152</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="0">
         <v>72</v>
       </c>
-      <c r="C5">
-        <v>51</v>
-      </c>
-      <c r="E5" s="13">
-        <v>5.3496420164989152E-4</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
+      <c r="C6" s="0">
         <v>72</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="0"/>
+      <c r="E6" s="13">
+        <v>4.2351647362715055e-22</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="0">
         <v>72</v>
       </c>
-      <c r="E6" s="13">
-        <v>4.2351647362715055E-22</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>72</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>70</v>
       </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="13">
-        <v>1.1134248091657707E-18</v>
+        <v>1.1134248091657707e-18</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" s="28" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="44" t="s">
-        <v>70</v>
+        <v>467</v>
       </c>
       <c r="B8" s="28">
         <v>72</v>
@@ -2336,11 +3165,12 @@
       <c r="C8" s="28">
         <v>50</v>
       </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="41">
-        <v>1.2935849626762902E-3</v>
+        <v>0.0012935849626762902</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>77</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2358,139 +3188,145 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.47265625" customWidth="1"/>
-    <col min="2" max="2" width="3.1015625" customWidth="1"/>
-    <col min="3" max="3" width="3.9453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="true"/>
+    <col min="2" max="2" width="3.1328125" customWidth="true"/>
+    <col min="3" max="3" width="4.3984375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="1.921875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="2.1875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="3.9765625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" s="43" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="52" t="s">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>86</v>
+        <v>483</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>87</v>
+        <v>484</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>88</v>
+        <v>485</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>89</v>
+        <v>486</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2">
+        <v>476</v>
+      </c>
+      <c r="B2" s="0">
         <v>72</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>49</v>
       </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="14">
-        <v>1.0932449729686186E-3</v>
+        <v>0.0010932449729686186</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3">
+        <v>477</v>
+      </c>
+      <c r="B3" s="0">
         <v>72</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>49</v>
       </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="14">
-        <v>1.0932449729686186E-3</v>
+        <v>0.0010932449729686186</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4">
+        <v>478</v>
+      </c>
+      <c r="B4" s="0">
         <v>72</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>52</v>
       </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="14">
-        <v>2.0771603022674124E-4</v>
+        <v>0.00020771603022674124</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5">
+        <v>479</v>
+      </c>
+      <c r="B5" s="0">
         <v>72</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>44</v>
       </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="14">
-        <v>7.6369154671831224E-2</v>
+        <v>0.076369154671831224</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6">
+        <v>480</v>
+      </c>
+      <c r="B6" s="0">
         <v>72</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>67</v>
       </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="14">
-        <v>6.3877308356782484E-15</v>
+        <v>6.3877308356782484e-15</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7">
+        <v>481</v>
+      </c>
+      <c r="B7" s="0">
         <v>72</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>71</v>
       </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="14">
-        <v>3.0916702574781914E-20</v>
+        <v>3.0916702574781914e-20</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" s="28" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="54" t="s">
-        <v>85</v>
+        <v>482</v>
       </c>
       <c r="B8" s="28">
         <v>72</v>
@@ -2498,11 +3334,12 @@
       <c r="C8" s="28">
         <v>31</v>
       </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="55">
         <v>0.28878428041410464</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>95</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -2520,139 +3357,145 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.47265625" customWidth="1"/>
-    <col min="2" max="2" width="3.1015625" customWidth="1"/>
-    <col min="3" max="3" width="4.41796875" customWidth="1"/>
-    <col min="4" max="4" width="1.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="true"/>
+    <col min="2" max="2" width="3.1328125" customWidth="true"/>
+    <col min="3" max="3" width="4.3984375" customWidth="true"/>
+    <col min="4" max="4" width="1.921875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="2.1875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="3.9765625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" s="43" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="50" t="s">
-        <v>96</v>
+        <v>493</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>104</v>
+        <v>501</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>105</v>
+        <v>502</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>107</v>
+        <v>504</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2">
+        <v>494</v>
+      </c>
+      <c r="B2" s="0">
         <v>72</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>64</v>
       </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="15">
-        <v>5.7655193045193674E-12</v>
+        <v>5.7655193045193674e-12</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
+        <v>495</v>
+      </c>
+      <c r="B3" s="0">
         <v>72</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>55</v>
       </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="15">
-        <v>8.140030826723969E-6</v>
+        <v>8.140030826723969e-06</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4">
+        <v>496</v>
+      </c>
+      <c r="B4" s="0">
         <v>72</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>44</v>
       </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="15">
-        <v>7.6369154671831224E-2</v>
+        <v>0.076369154671831224</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5">
+        <v>497</v>
+      </c>
+      <c r="B5" s="0">
         <v>72</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>42</v>
       </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="15">
         <v>0.1945051658673988</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6">
+        <v>498</v>
+      </c>
+      <c r="B6" s="0">
         <v>72</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>66</v>
       </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="15">
-        <v>7.2557482195194917E-14</v>
+        <v>7.2557482195194917e-14</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7">
+        <v>499</v>
+      </c>
+      <c r="B7" s="0">
         <v>72</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>64</v>
       </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="15">
-        <v>5.7655193045193674E-12</v>
+        <v>5.7655193045193674e-12</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" s="28" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="48" t="s">
-        <v>103</v>
+        <v>500</v>
       </c>
       <c r="B8" s="28">
         <v>72</v>
@@ -2660,11 +3503,12 @@
       <c r="C8" s="28">
         <v>35</v>
       </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="51">
         <v>0.9062943247030808</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>113</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -2682,139 +3526,145 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.47265625" customWidth="1"/>
-    <col min="2" max="2" width="3.1015625" customWidth="1"/>
-    <col min="3" max="3" width="4.41796875" customWidth="1"/>
-    <col min="4" max="4" width="1.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="true"/>
+    <col min="2" max="2" width="3.1328125" customWidth="true"/>
+    <col min="3" max="3" width="4.3984375" customWidth="true"/>
+    <col min="4" max="4" width="1.921875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="2.1875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="3.9765625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="61" t="s">
-        <v>114</v>
+        <v>511</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>122</v>
+        <v>519</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>123</v>
+        <v>520</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>124</v>
+        <v>521</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>125</v>
+        <v>522</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="B2" s="0">
         <v>72</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>67</v>
       </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="16">
-        <v>6.3877308356782484E-15</v>
+        <v>6.3877308356782484e-15</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3">
+        <v>513</v>
+      </c>
+      <c r="B3" s="0">
         <v>72</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>38</v>
       </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="16">
         <v>0.72394814574691391</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4">
+        <v>514</v>
+      </c>
+      <c r="B4" s="0">
         <v>72</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>48</v>
       </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="16">
-        <v>6.309827313666071E-3</v>
+        <v>0.006309827313666071</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5">
+        <v>515</v>
+      </c>
+      <c r="B5" s="0">
         <v>72</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>45</v>
       </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="16">
-        <v>4.4370920008025769E-2</v>
+        <v>0.044370920008025769</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6">
+        <v>516</v>
+      </c>
+      <c r="B6" s="0">
         <v>72</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>63</v>
       </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="16">
-        <v>4.1812279092751594E-11</v>
+        <v>4.1812279092751594e-11</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7">
+        <v>517</v>
+      </c>
+      <c r="B7" s="0">
         <v>72</v>
       </c>
-      <c r="C7">
-        <v>58</v>
-      </c>
+      <c r="C7" s="0">
+        <v>55</v>
+      </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="16">
-        <v>1.6464300115968536E-7</v>
+        <v>8.140030826723969e-06</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="65" t="s">
-        <v>121</v>
+        <v>518</v>
       </c>
       <c r="B8" s="28">
         <v>72</v>
@@ -2827,7 +3677,7 @@
         <v>0.12491820036863976</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>132</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -2845,16 +3695,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.734375" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="4.1015625" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="4.734375" customWidth="true"/>
+    <col min="2" max="2" width="12.578125" customWidth="true"/>
+    <col min="3" max="3" width="4.1015625" customWidth="true"/>
+    <col min="4" max="5" width="12.578125" customWidth="true"/>
+    <col min="6" max="6" width="15.1015625" customWidth="true"/>
+    <col min="7" max="7" width="4" customWidth="true"/>
+    <col min="8" max="8" width="11.578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="76" t="s">
         <v>133</v>
       </c>
@@ -2880,7 +3730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="77" t="s">
         <v>134</v>
       </c>
@@ -2906,7 +3756,7 @@
         <v>73.014140365561829</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="77" t="s">
         <v>135</v>
       </c>
@@ -2932,7 +3782,7 @@
         <v>55.163901531988692</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="77" t="s">
         <v>136</v>
       </c>
@@ -2958,7 +3808,7 @@
         <v>63.059850392851743</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="77" t="s">
         <v>137</v>
       </c>
@@ -2984,7 +3834,7 @@
         <v>52.193900714452553</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="77" t="s">
         <v>138</v>
       </c>
@@ -3025,16 +3875,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.734375" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="4.1015625" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="4.734375" customWidth="true"/>
+    <col min="2" max="2" width="12.578125" customWidth="true"/>
+    <col min="3" max="3" width="4.1015625" customWidth="true"/>
+    <col min="4" max="5" width="12.578125" customWidth="true"/>
+    <col min="6" max="6" width="15.1015625" customWidth="true"/>
+    <col min="7" max="7" width="4" customWidth="true"/>
+    <col min="8" max="8" width="11.578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="79" t="s">
         <v>147</v>
       </c>
@@ -3060,7 +3910,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="78" t="s">
         <v>148</v>
       </c>
@@ -3086,7 +3936,7 @@
         <v>52.886762418334285</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="78" t="s">
         <v>149</v>
       </c>
@@ -3112,7 +3962,7 @@
         <v>29.890544515827688</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="78" t="s">
         <v>150</v>
       </c>
@@ -3138,7 +3988,7 @@
         <v>28.035013391805887</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="78" t="s">
         <v>151</v>
       </c>
@@ -3164,7 +4014,7 @@
         <v>15.331270432393392</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="78" t="s">
         <v>152</v>
       </c>
@@ -3205,122 +4055,124 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.5234375" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="3.1015625" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="9" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" customWidth="true"/>
+    <col min="3" max="3" width="3.1328125" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" customWidth="true"/>
+    <col min="6" max="6" width="15.1328125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="3.9765625" customWidth="true"/>
+    <col min="8" max="8" width="11.60546875" customWidth="true"/>
+    <col min="5" max="5" width="12.60546875" customWidth="true"/>
+    <col min="9" max="9" width="11.578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="82" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>170</v>
+        <v>311</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="I1" s="80" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2">
+        <v>304</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.97764347177417421</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.87748993109070561</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.9960907015385293</v>
       </c>
-      <c r="F2">
-        <v>2.7468976689087786E-5</v>
+      <c r="F2" s="0">
+        <v>2.7468976689087786e-05</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2">
+        <v>313</v>
+      </c>
+      <c r="H2" s="0">
         <v>95.578675790266061</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3">
+        <v>305</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.81494702421887111</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.61310755065310762</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.91691178341432633</v>
       </c>
-      <c r="F3">
-        <v>1.2407328385204036E-6</v>
+      <c r="F3" s="0">
+        <v>1.2407328385204036e-06</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3">
+        <v>313</v>
+      </c>
+      <c r="H3" s="0">
         <v>66.413865228319324</v>
       </c>
       <c r="I3">
         <v>68.400998417807472</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4">
+        <v>306</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.77063525587693749</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.53290303172282483</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.89561163138462785</v>
       </c>
-      <c r="F4">
-        <v>1.0531819744143096E-5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="0">
+        <v>1.0531819744143096e-05</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" s="0">
         <v>59.387869760051295</v>
       </c>
       <c r="I4">
@@ -3342,360 +4194,362 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.41796875" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="3.1015625" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="2.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="9" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="7.44921875" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" customWidth="true"/>
+    <col min="3" max="3" width="3.1328125" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" customWidth="true"/>
+    <col min="6" max="6" width="2.1875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="3.9765625" customWidth="true"/>
+    <col min="8" max="8" width="11.60546875" customWidth="true"/>
+    <col min="5" max="5" width="12.60546875" customWidth="true"/>
+    <col min="9" max="9" width="11.60546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="82" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2">
+        <v>316</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.9017079857508884</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>70</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.84696905122933996</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.93752915182716079</v>
       </c>
       <c r="F2" s="1">
-        <v>3.385090334935979E-27</v>
+        <v>3.385090334935979e-27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2">
+        <v>333</v>
+      </c>
+      <c r="H2" s="0">
         <v>81.307729156692432</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>84.00394455321657</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3">
+        <v>317</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.84890192740079007</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.76833763428132928</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.90298579099631826</v>
       </c>
       <c r="F3" s="1">
-        <v>4.5996192327433872E-21</v>
+        <v>4.5996192327433872e-21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3">
+        <v>333</v>
+      </c>
+      <c r="H3" s="0">
         <v>72.063448234477619</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>78.855041057644499</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4">
+        <v>318</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.62250199445171273</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.45669536657913906</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.74651284439423371</v>
       </c>
       <c r="F4" s="1">
-        <v>5.2859479536812045E-9</v>
+        <v>5.2859479536812045e-09</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4">
+        <v>333</v>
+      </c>
+      <c r="H4" s="0">
         <v>38.75087330963602</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>53.911331979681286</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5">
+        <v>319</v>
+      </c>
+      <c r="B5" s="0">
         <v>0.72531832753176784</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>70</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>0.59335290683460473</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0.81931462168073976</v>
       </c>
       <c r="F5" s="1">
-        <v>5.7742485557378394E-13</v>
+        <v>5.7742485557378394e-13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5">
+        <v>333</v>
+      </c>
+      <c r="H5" s="0">
         <v>52.608667625348083</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>83.260346598297957</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6">
+        <v>320</v>
+      </c>
+      <c r="B6" s="0">
         <v>0.7739375556563971</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>70</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>0.66073719310866363</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.85271658910037584</v>
       </c>
       <c r="F6" s="1">
-        <v>1.5704316347252645E-15</v>
+        <v>1.5704316347252645e-15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6">
+        <v>333</v>
+      </c>
+      <c r="H6" s="0">
         <v>59.897934005539874</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>78.311766874983306</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7">
+        <v>321</v>
+      </c>
+      <c r="B7" s="0">
         <v>0.73251753462237523</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>70</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0.60321540405788399</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0.82430113383793824</v>
       </c>
       <c r="F7" s="1">
-        <v>2.6122179146782924E-13</v>
+        <v>2.6122179146782924e-13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7">
+        <v>333</v>
+      </c>
+      <c r="H7" s="0">
         <v>53.658193852924271</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>74.238344905952346</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8">
+        <v>322</v>
+      </c>
+      <c r="B8" s="0">
         <v>0.64054121338235781</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>70</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0.48011909329931995</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>0.75950443259821032</v>
       </c>
       <c r="F8" s="1">
-        <v>1.3654517747091182E-9</v>
+        <v>1.3654517747091182e-09</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8">
+        <v>333</v>
+      </c>
+      <c r="H8" s="0">
         <v>41.029304604134325</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>50.914771154397734</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9">
+        <v>323</v>
+      </c>
+      <c r="B9" s="0">
         <v>0.6010730476665076</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>70</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>0.4291656962652638</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>0.73095615986001106</v>
       </c>
       <c r="F9" s="1">
-        <v>2.368527685874854E-8</v>
+        <v>2.368527685874854e-08</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9">
+        <v>333</v>
+      </c>
+      <c r="H9" s="0">
         <v>36.128880863110375</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>60.765792372982098</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10">
+        <v>324</v>
+      </c>
+      <c r="B10" s="0">
         <v>0.64250887789595057</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>70</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>0.48268799722971345</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.76091579937487219</v>
       </c>
       <c r="F10" s="1">
-        <v>1.1716891773359472E-9</v>
+        <v>1.1716891773359472e-09</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10">
+        <v>333</v>
+      </c>
+      <c r="H10" s="0">
         <v>41.281765817511349</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>74.339588396180574</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11">
+        <v>325</v>
+      </c>
+      <c r="B11" s="0">
         <v>0.65178791426657701</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>70</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>0.49483951302992762</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0.76755640196200803</v>
       </c>
       <c r="F11" s="1">
-        <v>5.6084656092029247E-10</v>
+        <v>5.6084656092029247e-10</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11">
+        <v>333</v>
+      </c>
+      <c r="H11" s="0">
         <v>42.482748518397472</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>57.918577140430131</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12">
+        <v>326</v>
+      </c>
+      <c r="B12" s="0">
         <v>0.62848553626558434</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>70</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>0.46443953190608456</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0.75083261165586701</v>
       </c>
-      <c r="F12">
-        <v>3.40664589949404E-9</v>
+      <c r="F12" s="0">
+        <v>3.40664589949404e-09</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12">
+        <v>333</v>
+      </c>
+      <c r="H12" s="0">
         <v>39.499406929503913</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>66.264467144924723</v>
       </c>
     </row>
@@ -3714,364 +4568,366 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.5234375" style="81" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="3.1015625" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="2.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="9" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="81" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" customWidth="true"/>
+    <col min="3" max="3" width="3.1328125" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" customWidth="true"/>
+    <col min="6" max="6" width="2.1875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="3.9765625" customWidth="true"/>
+    <col min="8" max="8" width="11.60546875" customWidth="true"/>
+    <col min="5" max="5" width="12.60546875" customWidth="true"/>
+    <col min="9" max="9" width="11.60546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="82" t="s">
-        <v>196</v>
+        <v>336</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>209</v>
+        <v>349</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>211</v>
+        <v>351</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2">
+        <v>337</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.88028280342540144</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>70</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.81477430474172574</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.92359838816894713</v>
       </c>
       <c r="F2" s="2">
-        <v>2.3161801575111553E-24</v>
+        <v>2.3161801575111553e-24</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2">
+        <v>354</v>
+      </c>
+      <c r="H2" s="0">
         <v>77.489781400648397</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>80.51588084404095</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3">
+        <v>338</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.8992042669278083</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.84318598388729649</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.93590712675415244</v>
       </c>
       <c r="F3" s="2">
-        <v>7.8171542689671228E-27</v>
+        <v>7.8171542689671228e-27</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3">
+        <v>354</v>
+      </c>
+      <c r="H3" s="0">
         <v>80.856831366117703</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>82.227371755723127</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4">
+        <v>339</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.80584774848355267</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.70597791571488722</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.87429460786547541</v>
       </c>
       <c r="F4" s="2">
-        <v>1.3715518573354663E-17</v>
+        <v>1.3715518573354663e-17</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4">
+        <v>354</v>
+      </c>
+      <c r="H4" s="0">
         <v>64.939059373601111</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>75.861867848912766</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5">
+        <v>340</v>
+      </c>
+      <c r="B5" s="0">
         <v>0.73299890999648154</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>70</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>0.60387627389198839</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0.8246340500895456</v>
       </c>
       <c r="F5" s="2">
-        <v>2.47503268660512E-13</v>
+        <v>2.47503268660512e-13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5">
+        <v>354</v>
+      </c>
+      <c r="H5" s="0">
         <v>53.72874020560301</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>67.018876608407609</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="85" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6">
+        <v>341</v>
+      </c>
+      <c r="B6" s="0">
         <v>0.79535753897231676</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>70</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>0.69101493294823435</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.86723073822005647</v>
       </c>
       <c r="F6" s="2">
-        <v>7.1445483759181559E-17</v>
+        <v>7.1445483759181559e-17</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6">
+        <v>354</v>
+      </c>
+      <c r="H6" s="0">
         <v>63.259361480010035</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>77.639924668345657</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7">
+        <v>342</v>
+      </c>
+      <c r="B7" s="0">
         <v>0.73321764778408682</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>70</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0.60417663294054458</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0.8247853068260288</v>
       </c>
       <c r="F7" s="2">
-        <v>2.415006783439615E-13</v>
+        <v>2.415006783439615e-13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7">
+        <v>354</v>
+      </c>
+      <c r="H7" s="0">
         <v>53.760811902202917</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>66.504800803066971</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8">
+        <v>343</v>
+      </c>
+      <c r="B8" s="0">
         <v>0.55415058917832527</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>70</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0.36997976329220428</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>0.69641402388724893</v>
       </c>
       <c r="F8" s="2">
-        <v>4.4192974667685537E-7</v>
+        <v>4.4192974667685537e-07</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8">
+        <v>354</v>
+      </c>
+      <c r="H8" s="0">
         <v>30.708287548668501</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>48.904666375732297</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9">
+        <v>344</v>
+      </c>
+      <c r="B9" s="0">
         <v>0.41469320578237717</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>70</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>0.20247688172708031</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>0.58970772929099591</v>
       </c>
       <c r="F9" s="2">
-        <v>2.9264073097766825E-4</v>
+        <v>0.00029264073097766825</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9">
+        <v>354</v>
+      </c>
+      <c r="H9" s="0">
         <v>17.197045492206502</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>33.177798156645828</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10">
+        <v>345</v>
+      </c>
+      <c r="B10" s="0">
         <v>0.77506261035531854</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>70</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>0.6623183756087796</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.85348196316197766</v>
       </c>
       <c r="F10" s="2">
-        <v>1.3465312728402367E-15</v>
+        <v>1.3465312728402367e-15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10">
+        <v>354</v>
+      </c>
+      <c r="H10" s="0">
         <v>60.072204997080036</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>71.062418316652554</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11">
+        <v>346</v>
+      </c>
+      <c r="B11" s="0">
         <v>0.68934778050934398</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>70</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>0.54466182983731704</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0.79418485310419051</v>
       </c>
       <c r="F11" s="2">
-        <v>2.1515168814822721E-11</v>
+        <v>2.1515168814822721e-11</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H11">
+        <v>354</v>
+      </c>
+      <c r="H11" s="0">
         <v>47.520036249315865</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>56.620234444187233</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12">
+        <v>347</v>
+      </c>
+      <c r="B12" s="0">
         <v>0.7681200241814925</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>70</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>0.65257707294646583</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0.84875352198245979</v>
       </c>
-      <c r="F12">
-        <v>3.4311349692451237E-15</v>
+      <c r="F12" s="0">
+        <v>3.4311349692451237e-15</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12">
+        <v>354</v>
+      </c>
+      <c r="H12" s="0">
         <v>59.000837154857663</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>61.308700507913606</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="86"/>
     </row>
   </sheetData>
@@ -4089,361 +4945,362 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.20703125" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="3.1015625" customWidth="1"/>
-    <col min="4" max="4" width="13.578125" customWidth="1"/>
-    <col min="5" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="2.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="9" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="5.1875" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" customWidth="true"/>
+    <col min="3" max="3" width="3.1328125" customWidth="true"/>
+    <col min="4" max="4" width="13.60546875" customWidth="true"/>
+    <col min="5" max="5" width="12.60546875" customWidth="true"/>
+    <col min="6" max="6" width="2.1875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="3.9765625" customWidth="true"/>
+    <col min="8" max="8" width="11.60546875" customWidth="true"/>
+    <col min="9" max="9" width="11.60546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="72" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>229</v>
+        <v>369</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>231</v>
+        <v>371</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>234</v>
+        <v>374</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2">
+        <v>358</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.82440301620352507</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>70</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.73266484018928613</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.88671871179840145</v>
       </c>
       <c r="F2" s="3">
-        <v>5.7045991183880636E-19</v>
+        <v>5.7045991183880636e-19</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2">
+        <v>375</v>
+      </c>
+      <c r="H2" s="0">
         <v>67.964033312546974</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>79.798146746864376</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3">
+        <v>359</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.55957420439054928</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.37674530747013857</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.70044061755157905</v>
       </c>
       <c r="F3" s="3">
-        <v>3.2237968738173438E-7</v>
+        <v>3.2237968738173438e-07</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H3">
+        <v>375</v>
+      </c>
+      <c r="H3" s="0">
         <v>31.312329021931625</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>66.452606398084441</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4">
+        <v>360</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.47113336672076889</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.26880389099862356</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.63364194141883068</v>
       </c>
       <c r="F4" s="3">
-        <v>2.9549338131171928E-5</v>
+        <v>2.9549338131171928e-05</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4">
+        <v>375</v>
+      </c>
+      <c r="H4" s="0">
         <v>22.196664923764651</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>65.487167246586182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5">
+        <v>361</v>
+      </c>
+      <c r="B5" s="0">
         <v>0.50465159345211186</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>70</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>0.30912322181669177</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0.65924639720050093</v>
       </c>
       <c r="F5" s="3">
-        <v>6.1773872456066074E-6</v>
+        <v>6.1773872456066074e-06</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5">
+        <v>375</v>
+      </c>
+      <c r="H5" s="0">
         <v>25.467323077375561</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>61.104607663376221</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6">
+        <v>362</v>
+      </c>
+      <c r="B6" s="0">
         <v>0.58006461006112098</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>70</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>0.40248278976223895</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.71557257055109147</v>
       </c>
       <c r="F6" s="3">
-        <v>9.2934662149331958E-8</v>
+        <v>9.2934662149331958e-08</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H6">
+        <v>375</v>
+      </c>
+      <c r="H6" s="0">
         <v>33.647495184536034</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>70.742118223728127</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7">
+        <v>363</v>
+      </c>
+      <c r="B7" s="0">
         <v>0.49330379162378418</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>70</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0.29539370721792801</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0.65061780811209347</v>
       </c>
       <c r="F7" s="3">
-        <v>1.0689897595742222E-5</v>
+        <v>1.0689897595742222e-05</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7">
+        <v>375</v>
+      </c>
+      <c r="H7" s="0">
         <v>24.33486308304019</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>46.536409979846233</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8">
+        <v>364</v>
+      </c>
+      <c r="B8" s="0">
         <v>0.28334080513289284</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>70</v>
       </c>
-      <c r="D8">
-        <v>5.5302359088950349E-2</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="0">
+        <v>0.055302359088950349</v>
+      </c>
+      <c r="E8" s="0">
         <v>0.48328591600635534</v>
       </c>
       <c r="F8" s="3">
-        <v>1.5874056348794748E-2</v>
+        <v>0.015874056348794748</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H8">
+        <v>376</v>
+      </c>
+      <c r="H8" s="0">
         <v>8.028201185335595</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>24.705741345440316</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9">
+        <v>365</v>
+      </c>
+      <c r="B9" s="0">
         <v>0.44899451705505355</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>70</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>0.24255614383319132</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>0.61653263646142609</v>
       </c>
       <c r="F9" s="3">
-        <v>7.6221050101795421E-5</v>
+        <v>7.6221050101795421e-05</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9">
+        <v>377</v>
+      </c>
+      <c r="H9" s="0">
         <v>20.159607634550078</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>49.20659093089342</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10">
+        <v>366</v>
+      </c>
+      <c r="B10" s="0">
         <v>0.43746338874551927</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>70</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>0.22900354217057833</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.6075580557933522</v>
       </c>
       <c r="F10" s="3">
-        <v>1.2175011320941938E-4</v>
+        <v>0.00012175011320941938</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10">
+        <v>377</v>
+      </c>
+      <c r="H10" s="0">
         <v>19.137421649271332</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>53.366027162608212</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11">
+        <v>367</v>
+      </c>
+      <c r="B11" s="0">
         <v>0.47848731945860934</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>70</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>0.27758971178110797</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0.63929025328916167</v>
       </c>
       <c r="F11" s="3">
-        <v>2.1254626376734731E-5</v>
+        <v>2.1254626376734731e-05</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11">
+        <v>377</v>
+      </c>
+      <c r="H11" s="0">
         <v>22.895011488268526</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>39.525163877593847</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12">
+        <v>368</v>
+      </c>
+      <c r="B12" s="0">
         <v>0.35705474836623324</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>70</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>0.13669323124767871</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0.54374556473695124</v>
       </c>
-      <c r="F12">
-        <v>2.0779656533330632E-3</v>
+      <c r="F12" s="0">
+        <v>0.0020779656533330632</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12">
+        <v>378</v>
+      </c>
+      <c r="H12" s="0">
         <v>12.748809333087413</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>36.784273229417813</v>
       </c>
     </row>
@@ -4462,128 +5319,130 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.41796875" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="3.1015625" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="9" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="7.44921875" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" customWidth="true"/>
+    <col min="3" max="3" width="3.1328125" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" customWidth="true"/>
+    <col min="6" max="6" width="15.1328125" customWidth="true"/>
+    <col min="7" max="7" width="3.9765625" customWidth="true"/>
+    <col min="8" max="8" width="11.60546875" customWidth="true"/>
+    <col min="5" max="5" width="12.60546875" customWidth="true"/>
+    <col min="9" max="9" width="11.60546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="70" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>248</v>
+        <v>388</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>249</v>
+        <v>389</v>
       </c>
       <c r="G1" s="70" t="s">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="H1" s="70" t="s">
-        <v>252</v>
+        <v>392</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2">
+        <v>382</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.91840122905546895</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>70</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.87233468973936446</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.94830414993039847</v>
       </c>
-      <c r="F2">
-        <v>6.6911716114615103E-30</v>
+      <c r="F2" s="0">
+        <v>6.6911716114615103e-30</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H2">
+        <v>391</v>
+      </c>
+      <c r="H2" s="0">
         <v>84.346081753059593</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>86.940112666846758</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3">
+        <v>383</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.9653087075516017</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.94496404253657829</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.97821696566437333</v>
       </c>
-      <c r="F3">
-        <v>1.4809063887057985E-42</v>
+      <c r="F3" s="0">
+        <v>1.4809063887057985e-42</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3">
+        <v>391</v>
+      </c>
+      <c r="H3" s="0">
         <v>93.182090087494373</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>97.076357847364719</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4">
+        <v>384</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.76435742323874056</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.64731359144267064</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.84618549873915394</v>
       </c>
-      <c r="F4">
-        <v>5.6203191839910027E-15</v>
+      <c r="F4" s="0">
+        <v>5.6203191839910027e-15</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4">
+        <v>391</v>
+      </c>
+      <c r="H4" s="0">
         <v>58.424227046016718</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>66.629182327833007</v>
       </c>
     </row>
@@ -4602,129 +5461,131 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.5234375" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="3.1015625" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="9" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" customWidth="true"/>
+    <col min="3" max="3" width="3.1328125" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" customWidth="true"/>
+    <col min="6" max="6" width="15.1328125" customWidth="true"/>
+    <col min="7" max="7" width="3.9765625" customWidth="true"/>
+    <col min="8" max="8" width="11.60546875" customWidth="true"/>
+    <col min="5" max="5" width="12.60546875" customWidth="true"/>
+    <col min="9" max="9" width="11.60546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="68" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>258</v>
+        <v>398</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>259</v>
+        <v>399</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>262</v>
+        <v>402</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>265</v>
+        <v>405</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2">
-        <v>0.80073770497374241</v>
-      </c>
-      <c r="C2">
+        <v>395</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.80073770497374253</v>
+      </c>
+      <c r="C2" s="0">
         <v>70</v>
       </c>
-      <c r="D2">
-        <v>0.69867791837727422</v>
-      </c>
-      <c r="E2">
-        <v>0.87085723800919279</v>
-      </c>
-      <c r="F2">
-        <v>3.1022800247461375E-17</v>
+      <c r="D2" s="0">
+        <v>0.69867791837727455</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.8708572380091929</v>
+      </c>
+      <c r="F2" s="0">
+        <v>3.1022800247460709e-17</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2">
-        <v>64.118087216661607</v>
-      </c>
-      <c r="I2">
-        <v>65.093493517394563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>404</v>
+      </c>
+      <c r="H2" s="0">
+        <v>64.118087216661635</v>
+      </c>
+      <c r="I2" s="0">
+        <v>65.09349351739462</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3">
+        <v>396</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.90162764633128278</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.84684757388294818</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.93747712839996367</v>
       </c>
-      <c r="F3">
-        <v>3.4784395193066981E-27</v>
+      <c r="F3" s="0">
+        <v>3.4784395193066981e-27</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H3">
+        <v>404</v>
+      </c>
+      <c r="H3" s="0">
         <v>81.29324126288887</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>80.960657365312869</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4">
+        <v>397</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.69457515843179451</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.55167774278131165</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.79785921235489909</v>
       </c>
-      <c r="F4">
-        <v>1.3141651220481744E-11</v>
+      <c r="F4" s="0">
+        <v>1.3141651220481744e-11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4">
+        <v>404</v>
+      </c>
+      <c r="H4" s="0">
         <v>48.243465071055248</v>
       </c>
-      <c r="I4">
-        <v>52.729012201994543</v>
+      <c r="I4" s="0">
+        <v>52.72901220199455</v>
       </c>
     </row>
   </sheetData>
@@ -4742,128 +5603,130 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.20703125" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="3.1015625" customWidth="1"/>
-    <col min="4" max="5" width="12.578125" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="9" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="5.1875" customWidth="true"/>
+    <col min="2" max="2" width="12.60546875" customWidth="true"/>
+    <col min="3" max="3" width="3.1328125" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" customWidth="true"/>
+    <col min="6" max="6" width="15.1328125" customWidth="true"/>
+    <col min="7" max="7" width="3.9765625" customWidth="true"/>
+    <col min="8" max="8" width="11.60546875" customWidth="true"/>
+    <col min="5" max="5" width="12.60546875" customWidth="true"/>
+    <col min="9" max="9" width="11.60546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="66" t="s">
-        <v>267</v>
+        <v>407</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>271</v>
+        <v>411</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>273</v>
+        <v>413</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>274</v>
+        <v>414</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>275</v>
+        <v>415</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>276</v>
+        <v>416</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2">
+        <v>408</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.62155545879262131</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>70</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.4554726157684057</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.74582854200011184</v>
       </c>
-      <c r="F2">
-        <v>5.6615583108098646E-9</v>
+      <c r="F2" s="0">
+        <v>5.6615583108098646e-09</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2">
+        <v>417</v>
+      </c>
+      <c r="H2" s="0">
         <v>38.633118835490599</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>65.669416492775213</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3">
+        <v>409</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.5502521612897826</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.36512880998434377</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.69351421407784741</v>
       </c>
-      <c r="F3">
-        <v>5.5249716828531606E-7</v>
+      <c r="F3" s="0">
+        <v>5.5249716828531606e-07</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3">
+        <v>417</v>
+      </c>
+      <c r="H3" s="0">
         <v>30.277744100407695</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>76.129769823581256</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4">
+        <v>410</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.51724783186171674</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.32445924550915661</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.66877682272174321</v>
       </c>
-      <c r="F4">
-        <v>3.2828917181010093E-6</v>
+      <c r="F4" s="0">
+        <v>3.2828917181010093e-06</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4">
+        <v>417</v>
+      </c>
+      <c r="H4" s="0">
         <v>26.75453195656468</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>54.064760088205574</v>
       </c>
     </row>
@@ -4882,60 +5745,61 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.47265625" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.1015625" customWidth="1"/>
-    <col min="7" max="7" width="12.578125" customWidth="1"/>
-    <col min="8" max="8" width="4.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1015625" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="true"/>
+    <col min="2" max="2" width="11.60546875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="12.60546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="3.1328125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="3.1328125" customWidth="true"/>
+    <col min="7" max="7" width="12.60546875" customWidth="true"/>
+    <col min="8" max="8" width="4.34375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="15.1328125" customWidth="true"/>
+    <col min="10" max="10" width="3.9765625" customWidth="true"/>
+    <col min="4" max="4" width="12.60546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" s="30" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="59" t="s">
-        <v>23</v>
+        <v>420</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>31</v>
+        <v>428</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>34</v>
+        <v>431</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>35</v>
+        <v>432</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="I1" s="59" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="J1" s="59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
+        <v>421</v>
+      </c>
+      <c r="B2" s="0">
         <v>4.9121512078363399</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.68504840272865375</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>1.287862868916271</v>
       </c>
       <c r="E2" s="11">
@@ -4944,30 +5808,30 @@
       <c r="F2" s="17">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>3.5130957237104523</v>
       </c>
       <c r="H2" s="19">
         <v>6.3112066919622274</v>
       </c>
-      <c r="I2">
-        <v>5.5989469646209826E-8</v>
+      <c r="I2" s="0">
+        <v>5.5989469646209826e-08</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
+        <v>422</v>
+      </c>
+      <c r="B3" s="0">
         <v>4.9121512078362102</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>0.68504840272865908</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>1.2878628689162268</v>
       </c>
       <c r="E3" s="11">
@@ -4976,30 +5840,30 @@
       <c r="F3" s="17">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>3.513095723710312</v>
       </c>
       <c r="H3" s="19">
         <v>6.3112066919621084</v>
       </c>
-      <c r="I3">
-        <v>5.5989469646246778E-8</v>
+      <c r="I3" s="0">
+        <v>5.5989469646246778e-08</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
+        <v>423</v>
+      </c>
+      <c r="B4" s="0">
         <v>2.5233642105793357</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0.44780683263767118</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1.0120649309774072</v>
       </c>
       <c r="E4" s="11">
@@ -5008,30 +5872,30 @@
       <c r="F4" s="17">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>1.6088206505399216</v>
       </c>
       <c r="H4" s="19">
         <v>3.4379077706187497</v>
       </c>
-      <c r="I4">
-        <v>3.8829048780333246E-6</v>
+      <c r="I4" s="0">
+        <v>3.8829048780333246e-06</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
+        <v>424</v>
+      </c>
+      <c r="B5" s="0">
         <v>1.2199328634400084</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>0.26412208627128669</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>0.82956489358289076</v>
       </c>
       <c r="E5" s="11">
@@ -5040,30 +5904,30 @@
       <c r="F5" s="17">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>0.68052360154734026</v>
       </c>
       <c r="H5" s="19">
         <v>1.7593421253326764</v>
       </c>
-      <c r="I5">
-        <v>6.8202631341602988E-5</v>
+      <c r="I5" s="0">
+        <v>6.8202631341602988e-05</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
+        <v>425</v>
+      </c>
+      <c r="B6" s="0">
         <v>18.013726296897755</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>0.76322045448788367</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>4.2390907281866372</v>
       </c>
       <c r="E6" s="11">
@@ -5072,30 +5936,30 @@
       <c r="F6" s="17">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>16.455022184611437</v>
       </c>
       <c r="H6" s="19">
         <v>19.572430409184072</v>
       </c>
-      <c r="I6">
-        <v>6.2651479831965365E-21</v>
+      <c r="I6" s="0">
+        <v>6.2651479831965365e-21</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
+        <v>426</v>
+      </c>
+      <c r="B7" s="0">
         <v>34.256529727566566</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>0.8859188615660829</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>6.9449411622554607</v>
       </c>
       <c r="E7" s="11">
@@ -5104,22 +5968,22 @@
       <c r="F7" s="17">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>32.447242038072403</v>
       </c>
       <c r="H7" s="19">
         <v>36.065817417060728</v>
       </c>
-      <c r="I7">
-        <v>3.7215714844198942E-27</v>
+      <c r="I7" s="0">
+        <v>3.7215714844198942e-27</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" s="28" customFormat="true" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
-        <v>30</v>
+        <v>427</v>
       </c>
       <c r="B8" s="28">
         <v>-0.48261986396401491</v>
@@ -5140,13 +6004,13 @@
         <v>-0.88656998248452068</v>
       </c>
       <c r="H8" s="38">
-        <v>-7.8669745443509131E-2</v>
+        <v>-0.078669745443509131</v>
       </c>
       <c r="I8" s="28">
-        <v>2.0810422333413025E-2</v>
+        <v>0.020810422333413025</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>41</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
